--- a/WpfApp2/bin/Debug/netcoreapp3.1/demo.xlsx
+++ b/WpfApp2/bin/Debug/netcoreapp3.1/demo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t xml:space="preserve">自己調達許諾シール給付申請書</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">店舗名</t>
   </si>
   <si>
-    <t xml:space="preserve">ｹﾞｵ北九州三ヶ森店</t>
+    <t xml:space="preserve">ゲオHARUYA厚狭店</t>
   </si>
   <si>
     <t xml:space="preserve">CDVJ区分</t>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">CDVJ組合員番号</t>
   </si>
   <si>
-    <t xml:space="preserve">00400341</t>
+    <t xml:space="preserve">00390083</t>
   </si>
   <si>
     <t xml:space="preserve">CDVJ店舗番号</t>
   </si>
   <si>
-    <t xml:space="preserve">001</t>
+    <t xml:space="preserve">017</t>
   </si>
   <si>
     <t xml:space="preserve">代表者名</t>
   </si>
   <si>
-    <t xml:space="preserve">　　　　　　　　　　　　　　　　　印</t>
+    <t xml:space="preserve">印</t>
   </si>
   <si>
     <t xml:space="preserve">ご担当者名</t>
@@ -65,28 +65,88 @@
     <t xml:space="preserve">代行店店舗コード</t>
   </si>
   <si>
-    <t xml:space="preserve">853870</t>
+    <t xml:space="preserve">854372</t>
   </si>
   <si>
     <t xml:space="preserve">電話番号</t>
   </si>
   <si>
-    <t xml:space="preserve">093-602-7802</t>
+    <t xml:space="preserve">0836-71-0520</t>
   </si>
   <si>
     <t xml:space="preserve">FAX番号</t>
   </si>
   <si>
-    <t xml:space="preserve">093-602-7813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">059-384-8612</t>
+    <t xml:space="preserve">0836-71-0004</t>
   </si>
   <si>
     <t xml:space="preserve">下記の作品について、自己調達許諾シールの給付を申請いたします。</t>
   </si>
   <si>
     <t xml:space="preserve">　＊給付対象商品はレンタル禁止期間経過作品のみです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISBNコード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイトル（巻数）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出版社</t>
+  </si>
+  <si>
+    <t xml:space="preserve">定価（税込）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">申請可能数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">申請数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">発売日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9784063642858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メルヘンちゃん（2）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">講談社</t>
+  </si>
+  <si>
+    <t xml:space="preserve">440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20101105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9784063417043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原色ツンデレ男子。　ウブかわカレシ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20100811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9784086177726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闘将！拉麺男（1）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">集英社</t>
+  </si>
+  <si>
+    <t xml:space="preserve">590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20020117</t>
   </si>
 </sst>
 </file>
@@ -94,7 +154,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="63">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -104,19 +164,107 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="MS PGothic"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="MS PGothic"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -125,7 +273,131 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
     </font>
     <font>
       <sz val="11"/>
@@ -154,17 +426,17 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="63"/>
+        <fgColor indexed="23"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="63"/>
+        <fgColor indexed="23"/>
         <bgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -172,41 +444,174 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <diagonal/>
-    </border>
-    <border>
-      <right/>
-      <top/>
-      <diagonal/>
-    </border>
-    <border>
-      <top/>
-      <diagonal/>
-    </border>
-    <border>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -234,159 +639,171 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+    </row>
     <row r="3">
       <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="B3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4"/>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5"/>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6"/>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="B6" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="45" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7"/>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="B7" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="53" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8"/>
-      <c r="B8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="B8" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="61" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9"/>
-      <c r="B9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10"/>
@@ -400,21 +817,105 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11">
-      <c r="A11"/>
-      <c r="B11" t="s">
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:G1"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="D6:G6"/>

--- a/WpfApp2/bin/Debug/netcoreapp3.1/demo.xlsx
+++ b/WpfApp2/bin/Debug/netcoreapp3.1/demo.xlsx
@@ -154,7 +154,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="63">
+  <fonts count="65">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -269,35 +269,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="MS PGothic"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="MS PGothic"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="MS PGothic"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="MS PGothic"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="MS PGothic"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="MS PGothic"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="MS PGothic"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="MS PGothic"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -448,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -520,9 +528,7 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,17 +547,15 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -567,13 +571,13 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -589,13 +593,13 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -611,7 +615,13 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -693,103 +703,103 @@
       <c r="G4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="33" t="s">
+      <c r="D5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="45" t="s">
+      <c r="C6" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7"/>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="51" t="s">
+      <c r="E7" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="53" t="s">
+      <c r="G7" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="55" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8"/>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="61" t="s">
+      <c r="F8" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="63" t="s">
         <v>6</v>
       </c>
     </row>
@@ -915,10 +925,11 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="D6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WpfApp2/bin/Debug/netcoreapp3.1/demo.xlsx
+++ b/WpfApp2/bin/Debug/netcoreapp3.1/demo.xlsx
@@ -12,15 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
   <si>
     <t xml:space="preserve">自己調達許諾シール給付申請書</t>
   </si>
   <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
     <t xml:space="preserve">店舗名</t>
   </si>
   <si>
-    <t xml:space="preserve">ゲオHARUYA厚狭店</t>
+    <t xml:space="preserve">ｹﾞｵ北九州三ヶ森店</t>
   </si>
   <si>
     <t xml:space="preserve">CDVJ区分</t>
@@ -32,19 +35,16 @@
     <t xml:space="preserve">0：非加盟　１:加盟</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve">CDVJ組合員番号</t>
   </si>
   <si>
-    <t xml:space="preserve">00390083</t>
+    <t xml:space="preserve">00400341</t>
   </si>
   <si>
     <t xml:space="preserve">CDVJ店舗番号</t>
   </si>
   <si>
-    <t xml:space="preserve">017</t>
+    <t xml:space="preserve">001</t>
   </si>
   <si>
     <t xml:space="preserve">代表者名</t>
@@ -65,19 +65,22 @@
     <t xml:space="preserve">代行店店舗コード</t>
   </si>
   <si>
-    <t xml:space="preserve">854372</t>
+    <t xml:space="preserve">853870</t>
   </si>
   <si>
     <t xml:space="preserve">電話番号</t>
   </si>
   <si>
-    <t xml:space="preserve">0836-71-0520</t>
+    <t xml:space="preserve">093-602-7802</t>
   </si>
   <si>
     <t xml:space="preserve">FAX番号</t>
   </si>
   <si>
-    <t xml:space="preserve">0836-71-0004</t>
+    <t xml:space="preserve">093-602-7813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">059-384-8612</t>
   </si>
   <si>
     <t xml:space="preserve">下記の作品について、自己調達許諾シールの給付を申請いたします。</t>
@@ -107,46 +110,43 @@
     <t xml:space="preserve">発売日</t>
   </si>
   <si>
-    <t xml:space="preserve">9784063642858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メルヘンちゃん（2）</t>
+    <t xml:space="preserve">9784088792705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テラフォーマーズ（1）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">集英社</t>
+  </si>
+  <si>
+    <t xml:space="preserve">540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20120419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9784088795232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テラフォーマーズ（4）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20130219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9784063848410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">進撃！巨人中学校（1）</t>
   </si>
   <si>
     <t xml:space="preserve">講談社</t>
   </si>
   <si>
-    <t xml:space="preserve">440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20101105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9784063417043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">原色ツンデレ男子。　ウブかわカレシ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20100811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9784086177726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闘将！拉麺男（1）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">集英社</t>
-  </si>
-  <si>
-    <t xml:space="preserve">590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20020117</t>
+    <t xml:space="preserve">450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20130409</t>
   </si>
 </sst>
 </file>
@@ -650,41 +650,61 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3"/>
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -698,17 +718,19 @@
         <v>10</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
       <c r="B5" s="35" t="s">
         <v>11</v>
       </c>
@@ -716,47 +738,51 @@
         <v>12</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6"/>
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
       <c r="B6" s="48" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
       <c r="B7" s="56" t="s">
         <v>14</v>
       </c>
@@ -767,20 +793,22 @@
         <v>16</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7" s="53" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8"/>
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
       <c r="B8" s="64" t="s">
         <v>18</v>
       </c>
@@ -794,113 +822,149 @@
         <v>21</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G8" s="62" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9"/>
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10"/>
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
       <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12"/>
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13"/>
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="E14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14"/>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
       <c r="F14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15"/>
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
@@ -914,10 +978,10 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
         <v>44</v>
